--- a/xlsx/棉花_intext.xlsx
+++ b/xlsx/棉花_intext.xlsx
@@ -29,19 +29,19 @@
     <t>锦葵科</t>
   </si>
   <si>
-    <t>政策_政策_美國_棉花</t>
+    <t>政策_政策_美国_棉花</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1%E5%B1%AC</t>
   </si>
   <si>
-    <t>棉花屬</t>
+    <t>棉花属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>熱帶地區</t>
+    <t>热带地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%8C%E6%9C%A8</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>天然纖維</t>
+    <t>天然纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B2%B3%E6%B5%81%E5%9F%9F%E6%96%87%E6%98%8E</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E9%A0%98%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>藍領階級</t>
+    <t>蓝领阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AF%E8%8A%AF%E7%BB%92</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%AA%E5%AD%90</t>
   </si>
   <si>
-    <t>襪子</t>
+    <t>袜子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E8%A1%A3</t>
@@ -173,19 +173,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%89%A4%E9%87%9D%E7%B7%A8%E7%B9%94</t>
   </si>
   <si>
-    <t>鉤針編織</t>
+    <t>钩针编织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E7%B9%94</t>
   </si>
   <si>
-    <t>編織</t>
+    <t>编织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AB%98%E7%B8%88</t>
   </si>
   <si>
-    <t>嫘縈</t>
+    <t>嫘萦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E9%85%AF</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A1%E7%B9%94%E6%A5%AD</t>
   </si>
   <si>
-    <t>紡織業</t>
+    <t>纺织业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%94%E7%BD%91</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B3%E7%AF%B7</t>
   </si>
   <si>
-    <t>帳篷</t>
+    <t>帐篷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%9D%E5%8C%96%E7%BA%A4%E7%BB%B4</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E7%B4%99</t>
   </si>
   <si>
-    <t>棉紙</t>
+    <t>棉纸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E9%98%B2%E6%B0%B4%E9%BE%99</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E8%8A%BB</t>
   </si>
   <si>
-    <t>反芻</t>
+    <t>反刍</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/monogastric</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%A6%9D</t>
   </si>
   <si>
-    <t>化妝</t>
+    <t>化妆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BD%95</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E8%8C%B2%E5%88%A5%E5%85%8B</t>
   </si>
   <si>
-    <t>烏茲別克</t>
+    <t>乌兹别克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
@@ -389,19 +389,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B3%A7%E9%A3%9F%E5%8F%8A%E8%BE%B2%E6%A5%AD%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>聯合國糧食及農業組織</t>
+    <t>联合国粮食及农业组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%B9%B2%E9%81%94</t>
   </si>
   <si>
-    <t>烏干達</t>
+    <t>乌干达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E4%B8%89%E6%AF%94%E5%85%8B</t>
@@ -425,13 +425,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9C%E8%B2%BC</t>
   </si>
   <si>
-    <t>補貼</t>
+    <t>补贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%89%E7%B4%9A</t>
   </si>
   <si>
-    <t>等級</t>
+    <t>等级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E8%B2%9D</t>
   </si>
   <si>
-    <t>吉貝</t>
+    <t>吉贝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%A3%89</t>
